--- a/analysed data/nw.xlsx
+++ b/analysed data/nw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Documents/GitHub/DGwhale/analysed data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{033E4D58-7E49-5D4A-9C2A-D6DC30008BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{08D20129-BAAB-F94C-861A-606E91F06736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-280" yWindow="680" windowWidth="28040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nw-days" sheetId="1" r:id="rId1"/>
@@ -22609,13 +22609,13 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>83641</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>55404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>295051</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>149838</xdr:rowOff>
@@ -22645,16 +22645,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>731782</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>112110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>122182</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>10510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22683,16 +22683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>604762</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>20158</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2606</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>820662</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>121758</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>218506</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>67017</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22727,7 +22727,7 @@
       <xdr:rowOff>155296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>4781</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>53696</xdr:rowOff>
@@ -22759,13 +22759,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -22797,13 +22797,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -22835,13 +22835,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>128</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -22873,13 +22873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -22911,13 +22911,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -22949,13 +22949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>178</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -22987,13 +22987,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>195</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -23025,13 +23025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>213</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -23069,7 +23069,7 @@
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>210659</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>118533</xdr:rowOff>
@@ -41812,10 +41812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE31E5D6-352B-C744-95D1-0F0D4676293B}">
-  <dimension ref="A1:P599"/>
+  <dimension ref="A1:R599"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScale="63" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41823,10 +41823,10 @@
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -41868,7 +41868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -41915,8 +41915,12 @@
       <c r="P2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="9" t="d">
+        <v>2002-01-01</v>
+      </c>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -41961,8 +41965,12 @@
       <c r="P3" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="9" t="d">
+        <v>2002-01-09</v>
+      </c>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -42007,8 +42015,12 @@
       <c r="P4" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="9" t="d">
+        <v>2002-01-17</v>
+      </c>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -42053,8 +42065,12 @@
       <c r="P5" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="16" t="d">
+        <v>2002-01-25</v>
+      </c>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -42101,8 +42117,12 @@
       <c r="P6" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="9" t="d">
+        <v>2002-02-02</v>
+      </c>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -42147,8 +42167,12 @@
       <c r="P7" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="9" t="d">
+        <v>2002-02-10</v>
+      </c>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -42193,8 +42217,12 @@
       <c r="P8" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="9" t="d">
+        <v>2002-02-18</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -42239,8 +42267,12 @@
       <c r="P9" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="9" t="d">
+        <v>2002-02-26</v>
+      </c>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -42287,8 +42319,12 @@
       <c r="P10" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="9" t="d">
+        <v>2002-03-06</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -42333,8 +42369,12 @@
       <c r="P11" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="9" t="d">
+        <v>2002-03-14</v>
+      </c>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -42379,8 +42419,12 @@
       <c r="P12" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="9" t="d">
+        <v>2002-03-22</v>
+      </c>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -42425,8 +42469,12 @@
       <c r="P13" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="9" t="d">
+        <v>2002-03-30</v>
+      </c>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -42473,8 +42521,12 @@
       <c r="P14" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9" t="d">
+        <v>2002-04-07</v>
+      </c>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -42519,8 +42571,12 @@
       <c r="P15" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="9" t="d">
+        <v>2002-04-15</v>
+      </c>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -42565,8 +42621,12 @@
       <c r="P16" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="9" t="d">
+        <v>2002-04-23</v>
+      </c>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -42613,8 +42673,12 @@
       <c r="P17" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="9" t="d">
+        <v>2002-05-01</v>
+      </c>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -42659,8 +42723,12 @@
       <c r="P18" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="9" t="d">
+        <v>2002-05-09</v>
+      </c>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -42705,8 +42773,12 @@
       <c r="P19" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="9" t="d">
+        <v>2002-05-17</v>
+      </c>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -42751,8 +42823,12 @@
       <c r="P20" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="9" t="d">
+        <v>2002-05-25</v>
+      </c>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -42799,8 +42875,12 @@
       <c r="P21" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="9" t="d">
+        <v>2002-06-02</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -42845,8 +42925,12 @@
       <c r="P22" s="10">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="9" t="d">
+        <v>2002-06-10</v>
+      </c>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -42891,8 +42975,12 @@
       <c r="P23" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="9" t="d">
+        <v>2002-06-18</v>
+      </c>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -42937,8 +43025,12 @@
       <c r="P24" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="9" t="d">
+        <v>2002-06-26</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -42985,8 +43077,12 @@
       <c r="P25" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="9" t="d">
+        <v>2002-07-04</v>
+      </c>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -43031,8 +43127,12 @@
       <c r="P26" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="9" t="d">
+        <v>2002-07-12</v>
+      </c>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -43077,8 +43177,12 @@
       <c r="P27" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="9" t="d">
+        <v>2002-07-20</v>
+      </c>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -43123,8 +43227,12 @@
       <c r="P28" s="10">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="9" t="d">
+        <v>2002-07-28</v>
+      </c>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -43171,8 +43279,12 @@
       <c r="P29" s="10">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="9" t="d">
+        <v>2002-08-05</v>
+      </c>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -43217,8 +43329,12 @@
       <c r="P30" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="9" t="d">
+        <v>2002-08-13</v>
+      </c>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -43263,8 +43379,12 @@
       <c r="P31" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="9" t="d">
+        <v>2002-08-21</v>
+      </c>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -43309,8 +43429,12 @@
       <c r="P32" s="10">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="9" t="d">
+        <v>2002-08-29</v>
+      </c>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -43357,8 +43481,12 @@
       <c r="P33" s="10">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="9" t="d">
+        <v>2002-09-06</v>
+      </c>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -43403,8 +43531,12 @@
       <c r="P34" s="10">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="9" t="d">
+        <v>2002-09-14</v>
+      </c>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -43449,8 +43581,12 @@
       <c r="P35" s="10">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="9" t="d">
+        <v>2002-09-22</v>
+      </c>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -43495,8 +43631,12 @@
       <c r="P36" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="9" t="d">
+        <v>2002-09-30</v>
+      </c>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -43543,8 +43683,12 @@
       <c r="P37" s="10">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="9" t="d">
+        <v>2002-10-08</v>
+      </c>
+      <c r="R37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -43589,8 +43733,12 @@
       <c r="P38" s="10">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="9" t="d">
+        <v>2002-10-16</v>
+      </c>
+      <c r="R38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -43635,8 +43783,12 @@
       <c r="P39" s="10">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="9" t="d">
+        <v>2002-10-24</v>
+      </c>
+      <c r="R39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -43683,8 +43835,12 @@
       <c r="P40" s="10">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="9" t="d">
+        <v>2002-11-01</v>
+      </c>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -43729,8 +43885,12 @@
       <c r="P41" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="9" t="d">
+        <v>2002-11-09</v>
+      </c>
+      <c r="R41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -43775,8 +43935,12 @@
       <c r="P42" s="10">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="16" t="d">
+        <v>2002-11-17</v>
+      </c>
+      <c r="R42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -43821,8 +43985,12 @@
       <c r="P43" s="10">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="9" t="d">
+        <v>2002-11-25</v>
+      </c>
+      <c r="R43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -43869,8 +44037,12 @@
       <c r="P44" s="10">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="9" t="d">
+        <v>2002-12-03</v>
+      </c>
+      <c r="R44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -43915,8 +44087,12 @@
       <c r="P45" s="10">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="9" t="d">
+        <v>2002-12-11</v>
+      </c>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -43961,8 +44137,12 @@
       <c r="P46" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="9" t="d">
+        <v>2002-12-19</v>
+      </c>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -44007,8 +44187,12 @@
       <c r="P47" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="9" t="d">
+        <v>2002-12-27</v>
+      </c>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -69737,15 +69921,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A65ED3-B1D7-164F-98E2-D68219FDE249}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="264" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
@@ -69754,13 +69938,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
       </c>
       <c r="I1" t="s">
         <v>46</v>
@@ -69776,7 +69960,7 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="D2" s="12" t="d">
+      <c r="C2" s="12" t="d">
         <v>2017-11-01</v>
       </c>
       <c r="H2">
@@ -69793,10 +69977,10 @@
       <c r="A3">
         <v>2003</v>
       </c>
+      <c r="B3" s="12" t="d">
+        <v>2025-01-01</v>
+      </c>
       <c r="C3" s="12" t="d">
-        <v>2025-01-01</v>
-      </c>
-      <c r="D3" s="12" t="d">
         <v>2024-10-01</v>
       </c>
       <c r="H3">
@@ -69817,10 +70001,10 @@
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="C4" s="12" t="d">
+      <c r="B4" s="12" t="d">
         <v>2025-01-25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
       <c r="H4">
@@ -69841,7 +70025,7 @@
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
@@ -69868,7 +70052,7 @@
       <c r="A6" s="15">
         <v>2006</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -69892,7 +70076,7 @@
       <c r="A7" s="15">
         <v>2007</v>
       </c>
-      <c r="D7" s="12" t="d">
+      <c r="C7" s="12" t="d">
         <v>2024-10-01</v>
       </c>
       <c r="H7">
@@ -69913,7 +70097,7 @@
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="C8" s="12" t="d">
+      <c r="B8" s="12" t="d">
         <v>2009-01-01</v>
       </c>
       <c r="H8">
@@ -69934,7 +70118,7 @@
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="D9" s="12" t="d">
+      <c r="C9" s="12" t="d">
         <v>2024-10-01</v>
       </c>
       <c r="H9">
@@ -69955,11 +70139,11 @@
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12" t="d">
+        <v>2017-01-01</v>
+      </c>
+      <c r="D10">
         <v>2</v>
-      </c>
-      <c r="C10" s="12" t="d">
-        <v>2017-01-01</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -69985,7 +70169,7 @@
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="D11" s="12" t="d">
+      <c r="C11" s="12" t="d">
         <v>2008-10-01</v>
       </c>
       <c r="H11">
@@ -70006,10 +70190,10 @@
       <c r="A12">
         <v>2012</v>
       </c>
+      <c r="B12" s="12" t="d">
+        <v>2010-02-01</v>
+      </c>
       <c r="C12" s="12" t="d">
-        <v>2010-02-01</v>
-      </c>
-      <c r="D12" s="12" t="d">
         <v>2013-10-01</v>
       </c>
       <c r="H12">
@@ -70030,14 +70214,14 @@
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12" t="d">
+        <v>2010-02-01</v>
+      </c>
+      <c r="C13" s="12" t="d">
+        <v>2025-11-01</v>
+      </c>
+      <c r="D13">
         <v>1</v>
-      </c>
-      <c r="C13" s="12" t="d">
-        <v>2010-02-01</v>
-      </c>
-      <c r="D13" s="12" t="d">
-        <v>2025-11-01</v>
       </c>
       <c r="E13" t="s">
         <v>54</v>
@@ -70060,7 +70244,7 @@
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="C14" s="12" t="d">
+      <c r="B14" s="12" t="d">
         <v>2025-01-01</v>
       </c>
       <c r="E14" t="s">
@@ -70104,6 +70288,12 @@
       </c>
       <c r="J16" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <f>AVERAGE(K3:K15)</f>
+        <v>74.15384615384616</v>
       </c>
     </row>
   </sheetData>
